--- a/Dota2Simulator/dota2.xlsx
+++ b/Dota2Simulator/dota2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView windowWidth="27270" windowHeight="11670" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Lion秒人" sheetId="5" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="595">
   <si>
     <t>增加的伤害</t>
   </si>
@@ -413,6 +413,159 @@
   </si>
   <si>
     <t xml:space="preserve">    真实宝石，放地上可以用来排高台的视野</t>
+  </si>
+  <si>
+    <t>7.31b</t>
+  </si>
+  <si>
+    <t>技能范围X</t>
+  </si>
+  <si>
+    <t>技能范围Y</t>
+  </si>
+  <si>
+    <t>技能长度</t>
+  </si>
+  <si>
+    <t>技能间隔</t>
+  </si>
+  <si>
+    <t>第几个技能</t>
+  </si>
+  <si>
+    <t>中心点X</t>
+  </si>
+  <si>
+    <t>中心点Y</t>
+  </si>
+  <si>
+    <t>魔晶位置</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>A帐位置</t>
+  </si>
+  <si>
+    <t>物品X</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>间隔</t>
+  </si>
+  <si>
+    <t>物品Y二行起始</t>
+  </si>
+  <si>
+    <t>二起始X</t>
+  </si>
+  <si>
+    <t>三起始X</t>
+  </si>
+  <si>
+    <t>中立道具</t>
+  </si>
+  <si>
+    <t>4技能</t>
+  </si>
+  <si>
+    <t>799-1051</t>
+  </si>
+  <si>
+    <t>944-1007</t>
+  </si>
+  <si>
+    <t>1077,996</t>
+  </si>
+  <si>
+    <t>37, 181, 255</t>
+  </si>
+  <si>
+    <t>1077,963</t>
+  </si>
+  <si>
+    <t>28, 193, 254</t>
+  </si>
+  <si>
+    <t>1118-1309</t>
+  </si>
+  <si>
+    <t>943-991-1035</t>
+  </si>
+  <si>
+    <t>1317-1360</t>
+  </si>
+  <si>
+    <t>5技能魔晶（A帐魔晶6技能）</t>
+  </si>
+  <si>
+    <t>784-1069</t>
+  </si>
+  <si>
+    <t>944-997</t>
+  </si>
+  <si>
+    <t>1093,996</t>
+  </si>
+  <si>
+    <t>1093,963</t>
+  </si>
+  <si>
+    <t>1134-1325</t>
+  </si>
+  <si>
+    <t>5技能A帐（A帐魔晶6技能）</t>
+  </si>
+  <si>
+    <t>6技能A帐魔晶</t>
+  </si>
+  <si>
+    <t>754-1098</t>
+  </si>
+  <si>
+    <t>1121,996</t>
+  </si>
+  <si>
+    <t>1121,963</t>
+  </si>
+  <si>
+    <t>1162-1353</t>
+  </si>
+  <si>
+    <t>1361-1404</t>
+  </si>
+  <si>
+    <t>技能4技能和多技能不同，其他相同</t>
+  </si>
+  <si>
+    <t>物品图片全相同 含中立道具</t>
+  </si>
+  <si>
+    <t>放完技能需要额外50毫秒时间等待</t>
+  </si>
+  <si>
+    <t>-perfectworld</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>134,129,105</t>
+  </si>
+  <si>
+    <t>74,113,181</t>
+  </si>
+  <si>
+    <t>12,14,25</t>
+  </si>
+  <si>
+    <t>1,1,3</t>
   </si>
   <si>
     <t>作弊码</t>
@@ -1715,13 +1868,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1737,11 +1891,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1751,37 +1904,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1795,25 +1926,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1825,9 +1948,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1835,7 +1964,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1857,11 +1986,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1874,8 +2018,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1890,7 +2050,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,175 +2230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,6 +2259,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2110,35 +2303,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2167,17 +2331,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2189,10 +2349,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2201,137 +2361,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2341,11 +2501,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -2356,19 +2528,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4316,83 +4488,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="15.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="15.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="10" customWidth="1"/>
     <col min="4" max="4" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="12">
         <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="10">
         <v>950</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <f>B13*(1+0.18*B5)*(B4)*(1-B2)*(1-B11)*(1+0.4*B9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="13">
         <v>0</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <f>B13*(0.18*B5)*(1+B4)*(1-B2)*(1-B11)*(1+0.4*B9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>0</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <f>(20*B8*B6)*(1-B2)*(1-B11)*(1+0.4*B9)*(1+0.18*B5)</f>
         <v>0</v>
       </c>
@@ -4401,10 +4573,10 @@
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>0</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <f>B14*(1-B2)*(1-B11)*(0.4*B9)</f>
         <v>0</v>
       </c>
@@ -4413,10 +4585,10 @@
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>0</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <f>B10*(1-B2)*(1-B11)*(1+0.4*B9)*(1+0.18*B5)</f>
         <v>0</v>
       </c>
@@ -4425,42 +4597,42 @@
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="10">
         <f>(B3+40*B6+20*B6*B8)</f>
         <v>950</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <f>B12+260*B7+B10</f>
         <v>950</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="10">
         <f>B13*(1+0.18*B5)*(1+B4)</f>
         <v>950</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="10">
         <f>B13*(1-B2)*(1-B11)*(1+0.4*B9)*(1+0.18*B5)</f>
         <v>712.5</v>
       </c>
@@ -4482,95 +4654,95 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="6"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="5" width="12.625" style="6"/>
-    <col min="6" max="6" width="9" style="6"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="20.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="10"/>
+    <col min="3" max="3" width="9" style="10"/>
+    <col min="4" max="5" width="12.625" style="10"/>
+    <col min="6" max="6" width="9" style="10"/>
+    <col min="12" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="10">
         <v>1.7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <v>0.88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <f>B2/B1</f>
         <v>0.517647058823529</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="10">
         <f>B1/B2</f>
         <v>1.93181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <f>B7*B3</f>
         <v>2.58823529411765</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <f>INT(B5)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="10">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="10">
         <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="10">
         <f>B9/B2</f>
         <v>0.454545454545455</v>
       </c>
@@ -4593,102 +4765,102 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="59.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="12.625" style="6"/>
+    <col min="1" max="1" width="59.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9" style="10"/>
+    <col min="5" max="5" width="12.625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="10">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <v>0.9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="10">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="10">
         <v>0.8</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>118</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <v>0.7</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <v>135</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="10">
         <v>230</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="10">
         <f>D5/180*60</f>
         <v>76.6666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>0.65</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>145</v>
       </c>
     </row>
     <row r="7" ht="108" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="10">
         <v>0.6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="10">
         <v>157</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="10">
         <v>0.5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="10">
         <v>188</v>
       </c>
     </row>
@@ -4843,7 +5015,7 @@
       <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="9">
         <f>B8/B7</f>
         <v>0.0545454545454545</v>
       </c>
@@ -5950,7 +6122,7 @@
   <sheetPr/>
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -6532,75 +6704,511 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="2" customWidth="1"/>
+    <col min="4" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="12.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="2" customWidth="1"/>
+    <col min="12" max="17" width="9" style="2"/>
+    <col min="18" max="18" width="9.25" style="2"/>
+    <col min="19" max="19" width="12.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.25" style="2"/>
+    <col min="21" max="21" width="12.125" style="2" customWidth="1"/>
+    <col min="22" max="24" width="9" style="2"/>
+    <col min="25" max="25" width="12.25" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:3">
+    <row r="1" ht="14.25" spans="1:29">
       <c r="A1" s="3">
+        <v>220</v>
+      </c>
+      <c r="B1" s="2">
+        <v>247</v>
+      </c>
+      <c r="C1" s="2">
+        <v>231</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:29">
+      <c r="A2" s="3">
+        <v>193</v>
+      </c>
+      <c r="B2" s="2">
+        <v>241</v>
+      </c>
+      <c r="C2" s="2">
+        <v>203</v>
+      </c>
+      <c r="E2" s="4">
+        <f>ROUNDUP(AVERAGE(A:A),0)</f>
+        <v>207</v>
+      </c>
+      <c r="F2" s="4">
+        <f>ROUNDUP(AVERAGE(B:B),0)</f>
+        <v>244</v>
+      </c>
+      <c r="G2" s="4">
+        <f>ROUNDUP(AVERAGE(C:C),0)</f>
+        <v>217</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4" t="str">
+        <f>E2&amp;","&amp;F2&amp;","&amp;G2</f>
+        <v>207,244,217</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="2">
         <v>56</v>
       </c>
-      <c r="B1" s="3">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" spans="1:3">
-      <c r="A2" s="3">
-        <v>55</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="N2" s="2">
+        <v>9</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2</v>
+      </c>
+      <c r="P2" s="8">
+        <f>799+(O2-1)*(M2+N2)+M2/2</f>
+        <v>892</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>(944+1007)/2</f>
+        <v>975.5</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" s="2">
+        <f>1177-1118</f>
+        <v>59</v>
+      </c>
+      <c r="X2" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>1118+(W2+X2)*1</f>
+        <v>1184</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>1118+(W2+X2)*2</f>
+        <v>1250</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>1360-1317</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" spans="1:29">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="E3" s="4">
+        <f>ROUNDUP((MAX(A:A)-MIN(A:A))/2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="F3" s="4">
+        <f>ROUNDUP((MAX(B:B)-MIN(B:B))/2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <f>ROUNDUP((MAX(C:C)-MIN(C:C))/2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4" t="str">
+        <f>E3&amp;","&amp;F3&amp;","&amp;G3</f>
+        <v>14,3,14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="2">
         <v>52</v>
       </c>
-      <c r="C2" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" spans="5:9">
-      <c r="E5" s="4">
-        <f>ROUNDUP(AVERAGE(A:A),0)</f>
-        <v>56</v>
-      </c>
-      <c r="F5" s="4">
-        <f>ROUNDUP(AVERAGE(B:B),0)</f>
-        <v>53</v>
-      </c>
-      <c r="G5" s="4">
-        <f>ROUNDUP(AVERAGE(C:C),0)</f>
-        <v>17</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="str">
-        <f>E5&amp;","&amp;F5&amp;","&amp;G5</f>
-        <v>56,53,17</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" spans="5:9">
-      <c r="E6" s="4">
-        <f>ROUNDUP((MAX(A:A)-MIN(A:A))/2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <f>ROUNDUP((MAX(B:B)-MIN(B:B))/2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <f>ROUNDUP((MAX(C:C)-MIN(C:C))/2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4" t="str">
-        <f>E6&amp;","&amp;F6&amp;","&amp;G6</f>
-        <v>1,1,4</v>
+      <c r="N3" s="2">
+        <v>6</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="8">
+        <f>784+(O3-1)*(M3+N3)+M3/2</f>
+        <v>868</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>(944+997)/2</f>
+        <v>970.5</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W3" s="2">
+        <v>59</v>
+      </c>
+      <c r="X3" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>1134+(W3+X3)*1</f>
+        <v>1200</v>
+      </c>
+      <c r="AA3" s="2">
+        <f>1134+(W3+X3)*2</f>
+        <v>1266</v>
+      </c>
+      <c r="AC3" s="2">
+        <f>1360-1317</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="10:29">
+      <c r="J4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="2">
+        <v>52</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="8">
+        <f>784+(O4-1)*(M4+N4)+M4/2</f>
+        <v>868</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>(944+997)/2</f>
+        <v>970.5</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W4" s="2">
+        <v>59</v>
+      </c>
+      <c r="X4" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>1134+(W4+X4)*1</f>
+        <v>1200</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>1134+(W4+X4)*2</f>
+        <v>1266</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>1360-1317</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="2">
+        <f>806-754</f>
+        <v>52</v>
+      </c>
+      <c r="N5" s="2">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2</v>
+      </c>
+      <c r="P5" s="8">
+        <f>754+(O5-1)*(M5+N5)+M5/2</f>
+        <v>838</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>(944+997)/2</f>
+        <v>970.5</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="W5" s="2">
+        <f>221-162</f>
+        <v>59</v>
+      </c>
+      <c r="X5" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>1162+(W5+X5)*1</f>
+        <v>1228</v>
+      </c>
+      <c r="AA5" s="2">
+        <f>1162+(W5+X5)*2</f>
+        <v>1294</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC5" s="2">
+        <f>104-61</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="J15" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6"/>
+      <c r="E24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6"/>
+      <c r="E25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6625,2507 +7233,2507 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="1" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="1" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="1" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="1" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="1" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="1" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="1" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="1" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="1" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="1" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="1" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="1" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="1" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="1" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="1" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="1" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="1" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="1" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="1" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="1" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="1" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="1" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="1" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="1" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="1" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="1" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="1" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="1" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="1" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="1" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="1" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="1" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="1" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="1" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="1" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="1" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="1" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="1" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="1" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="1" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="1" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="1" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="1" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="1" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="1" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="1" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="1" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="1" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="1" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="1" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="1" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="1" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="1" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="1" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="1" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="1" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="1" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="1" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="1" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="1" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="1" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="1" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="1" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="1" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="1" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="1" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="1" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="1" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="1" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="1" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="1" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="1" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="1" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="1" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="1" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="1" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="1" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="1" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="1" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="1" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="1" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="1" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="1" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="1" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="1" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="1" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="1" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="1" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="1" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="1" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="1" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="1" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="1" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="1" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="1" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="1" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="1" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="1" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="1" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="1" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="1" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="1" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="1" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="1" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="1" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="1" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="1" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="1" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="1" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="1" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="1" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="1" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="1" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="1" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="1" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="1" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="1" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="1" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="1" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="1" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="1" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="1" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="1" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="1" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="1" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="1" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="1" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="1" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="1" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="1" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="1" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="1" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="1" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="1" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="1" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="1" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="1" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="1" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="1" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="1" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="1" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="1" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="1" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="1" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="1" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="1" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="1" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="1" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" s="1" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="1" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="1" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="1" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="1" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="1" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="1" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="1" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="1" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="1" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="1" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="1" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="1" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="1" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="1" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="1" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="1" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="1" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="1" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="1" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="1" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="1" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="1" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" s="1" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="1" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" s="1" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="1" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="1" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="1" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" s="1" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="1" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" s="1" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" s="1" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" s="1" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" s="1" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="1" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="1" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" s="1" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="1" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" s="1" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="1" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" s="1" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" s="1" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" s="1" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="1" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="1" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="1" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" s="1" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" s="1" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" s="1" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="1" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" s="1" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" s="1" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" s="1" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" s="1" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" s="1" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" s="1" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" s="1" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="1" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="1" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" s="1" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="1" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" s="1" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" s="1" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" s="1" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" s="1" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" s="1" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" s="1" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="1" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" s="1" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" s="1" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" s="1" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" s="1" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="1" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="1" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="1" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="1" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="1" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="1" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="1" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="1" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="1" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="1" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="1" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="1" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="1" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="1" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="1" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="1" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" s="1" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="1" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" s="1" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" s="1" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" s="1" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="1" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" s="1" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="1" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" s="1" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" s="1" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="1" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" s="1" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="1" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" s="1" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" s="1" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="1" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="1" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="1" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" s="1" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="1" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" s="1" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="1" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" s="1" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" s="1" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810" s="1" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="1" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" s="1" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816" s="1" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" s="1" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="1" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" s="1" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="1" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" s="1" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" s="1" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" s="1" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" s="1" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834" s="1" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" s="1" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838" s="1" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" s="1" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" s="1" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" s="1" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" s="1" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" s="1" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="1" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" s="1" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854" s="1" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856" s="1" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" s="1" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" s="1" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" s="1" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" s="1" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" s="1" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" s="1" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870" s="1" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872" s="1" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" s="1" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" s="1" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" s="1" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" s="1" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" s="1" t="s">
-        <v>497</v>
+        <v>548</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" s="1" t="s">
-        <v>498</v>
+        <v>549</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886" s="1" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888" s="1" t="s">
-        <v>500</v>
+        <v>551</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890" s="1" t="s">
-        <v>501</v>
+        <v>552</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892" s="1" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894" s="1" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896" s="1" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898" s="1" t="s">
-        <v>505</v>
+        <v>556</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900" s="1" t="s">
-        <v>506</v>
+        <v>557</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" s="1" t="s">
-        <v>507</v>
+        <v>558</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904" s="1" t="s">
-        <v>508</v>
+        <v>559</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906" s="1" t="s">
-        <v>509</v>
+        <v>560</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908" s="1" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910" s="1" t="s">
-        <v>511</v>
+        <v>562</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912" s="1" t="s">
-        <v>512</v>
+        <v>563</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" s="1" t="s">
-        <v>513</v>
+        <v>564</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916" s="1" t="s">
-        <v>514</v>
+        <v>565</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918" s="1" t="s">
-        <v>515</v>
+        <v>566</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920" s="1" t="s">
-        <v>516</v>
+        <v>567</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922" s="1" t="s">
-        <v>517</v>
+        <v>568</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924" s="1" t="s">
-        <v>518</v>
+        <v>569</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926" s="1" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928" s="1" t="s">
-        <v>520</v>
+        <v>571</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930" s="1" t="s">
-        <v>521</v>
+        <v>572</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932" s="1" t="s">
-        <v>522</v>
+        <v>573</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934" s="1" t="s">
-        <v>523</v>
+        <v>574</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936" s="1" t="s">
-        <v>524</v>
+        <v>575</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938" s="1" t="s">
-        <v>525</v>
+        <v>576</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940" s="1" t="s">
-        <v>526</v>
+        <v>577</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942" s="1" t="s">
-        <v>527</v>
+        <v>578</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944" s="1" t="s">
-        <v>528</v>
+        <v>579</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946" s="1" t="s">
-        <v>529</v>
+        <v>580</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948" s="1" t="s">
-        <v>530</v>
+        <v>581</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950" s="1" t="s">
-        <v>531</v>
+        <v>582</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" s="1" t="s">
-        <v>532</v>
+        <v>583</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954" s="1" t="s">
-        <v>533</v>
+        <v>584</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956" s="1" t="s">
-        <v>534</v>
+        <v>585</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958" s="1" t="s">
-        <v>535</v>
+        <v>586</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960" s="1" t="s">
-        <v>536</v>
+        <v>587</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962" s="1" t="s">
-        <v>537</v>
+        <v>588</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964" s="1" t="s">
-        <v>538</v>
+        <v>589</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966" s="1" t="s">
-        <v>539</v>
+        <v>590</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968" s="1" t="s">
-        <v>540</v>
+        <v>591</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970" s="1" t="s">
-        <v>541</v>
+        <v>592</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972" s="1" t="s">
-        <v>542</v>
+        <v>593</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974" s="1" t="s">
-        <v>543</v>
+        <v>594</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975" s="1" t="s">
-        <v>536</v>
+        <v>587</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977" s="1" t="s">
-        <v>537</v>
+        <v>588</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979" s="1" t="s">
-        <v>538</v>
+        <v>589</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981" s="1" t="s">
-        <v>539</v>
+        <v>590</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983" s="1" t="s">
-        <v>540</v>
+        <v>591</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985" s="1" t="s">
-        <v>541</v>
+        <v>592</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987" s="1" t="s">
-        <v>542</v>
+        <v>593</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989" s="1" t="s">
-        <v>543</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/Dota2Simulator/dota2.xlsx
+++ b/Dota2Simulator/dota2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView windowWidth="27270" windowHeight="11670" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Lion秒人" sheetId="5" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="588">
   <si>
     <t>增加的伤害</t>
   </si>
@@ -413,6 +413,138 @@
   </si>
   <si>
     <t xml:space="preserve">    真实宝石，放地上可以用来排高台的视野</t>
+  </si>
+  <si>
+    <t>7.31b</t>
+  </si>
+  <si>
+    <t>技能范围X</t>
+  </si>
+  <si>
+    <t>技能范围Y</t>
+  </si>
+  <si>
+    <t>技能长度</t>
+  </si>
+  <si>
+    <t>技能间隔</t>
+  </si>
+  <si>
+    <t>第几个技能</t>
+  </si>
+  <si>
+    <t>中心点X</t>
+  </si>
+  <si>
+    <t>中心点Y</t>
+  </si>
+  <si>
+    <t>魔晶位置</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>A帐位置</t>
+  </si>
+  <si>
+    <t>物品X</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>间隔</t>
+  </si>
+  <si>
+    <t>物品Y二行起始</t>
+  </si>
+  <si>
+    <t>二起始X</t>
+  </si>
+  <si>
+    <t>三起始X</t>
+  </si>
+  <si>
+    <t>中立道具</t>
+  </si>
+  <si>
+    <t>4技能</t>
+  </si>
+  <si>
+    <t>799-1051</t>
+  </si>
+  <si>
+    <t>944-1007</t>
+  </si>
+  <si>
+    <t>1077,996</t>
+  </si>
+  <si>
+    <t>37, 181, 255</t>
+  </si>
+  <si>
+    <t>1077,963</t>
+  </si>
+  <si>
+    <t>28, 193, 254</t>
+  </si>
+  <si>
+    <t>1118-1309</t>
+  </si>
+  <si>
+    <t>943-991-1035</t>
+  </si>
+  <si>
+    <t>1317-1360</t>
+  </si>
+  <si>
+    <t>5技能魔晶（A帐魔晶6技能）</t>
+  </si>
+  <si>
+    <t>784-1069</t>
+  </si>
+  <si>
+    <t>944-997</t>
+  </si>
+  <si>
+    <t>1093,996</t>
+  </si>
+  <si>
+    <t>1093,963</t>
+  </si>
+  <si>
+    <t>1134-1325</t>
+  </si>
+  <si>
+    <t>5技能A帐（A帐魔晶6技能）</t>
+  </si>
+  <si>
+    <t>6技能A帐魔晶</t>
+  </si>
+  <si>
+    <t>754-1098</t>
+  </si>
+  <si>
+    <t>1121,996</t>
+  </si>
+  <si>
+    <t>1121,963</t>
+  </si>
+  <si>
+    <t>1162-1353</t>
+  </si>
+  <si>
+    <t>1361-1404</t>
+  </si>
+  <si>
+    <t>技能4技能和多技能不同，其他相同</t>
+  </si>
+  <si>
+    <t>物品图片全相同 含中立道具</t>
+  </si>
+  <si>
+    <t>-perfectworld</t>
   </si>
   <si>
     <t>作弊码</t>
@@ -1715,10 +1847,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1732,6 +1865,38 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1753,7 +1918,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1766,15 +1938,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1782,20 +1964,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1810,24 +1978,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1841,41 +2000,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1890,19 +2023,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1914,31 +2035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1956,7 +2059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1968,7 +2077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1980,7 +2089,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1992,79 +2191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,17 +2217,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2114,11 +2247,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2138,22 +2301,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2161,23 +2309,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2189,10 +2322,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2201,133 +2334,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2341,11 +2474,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -2356,19 +2495,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4330,7 +4469,7 @@
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="10">
         <v>0.25</v>
       </c>
     </row>
@@ -4346,7 +4485,7 @@
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>0</v>
       </c>
       <c r="C4" s="8">
@@ -4358,7 +4497,7 @@
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>0</v>
       </c>
       <c r="C5" s="8">
@@ -4398,7 +4537,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="12">
@@ -4410,7 +4549,7 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="8">
@@ -4422,10 +4561,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>0</v>
       </c>
     </row>
@@ -4482,95 +4621,95 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="6"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="5" width="12.625" style="6"/>
-    <col min="6" max="6" width="9" style="6"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="20.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="8"/>
+    <col min="3" max="3" width="9" style="8"/>
+    <col min="4" max="5" width="12.625" style="8"/>
+    <col min="6" max="6" width="9" style="8"/>
+    <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="8">
         <v>1.7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>0.88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <f>B2/B1</f>
         <v>0.517647058823529</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <f>B1/B2</f>
         <v>1.93181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <f>B7*B3</f>
         <v>2.58823529411765</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <f>INT(B5)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <f>B9/B2</f>
         <v>0.454545454545455</v>
       </c>
@@ -4593,102 +4732,102 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="59.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="12.625" style="6"/>
+    <col min="1" max="1" width="59.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="12.625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>0.9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>0.8</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>118</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>0.7</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>135</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>230</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <f>D5/180*60</f>
         <v>76.6666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>0.65</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>145</v>
       </c>
     </row>
     <row r="7" ht="108" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>0.6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>157</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>0.5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
         <v>188</v>
       </c>
     </row>
@@ -4843,7 +4982,7 @@
       <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <f>B8/B7</f>
         <v>0.0545454545454545</v>
       </c>
@@ -5950,7 +6089,7 @@
   <sheetPr/>
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -6532,75 +6671,475 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="4.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="2" customWidth="1"/>
+    <col min="4" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="12.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="2" customWidth="1"/>
+    <col min="12" max="17" width="9" style="2"/>
+    <col min="18" max="18" width="9.25" style="2"/>
+    <col min="19" max="19" width="12.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.25" style="2"/>
+    <col min="21" max="21" width="12.125" style="2" customWidth="1"/>
+    <col min="22" max="24" width="9" style="2"/>
+    <col min="25" max="25" width="12.25" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:3">
-      <c r="A1" s="3">
+    <row r="1" spans="1:29">
+      <c r="A1" s="2">
+        <v>133</v>
+      </c>
+      <c r="B1" s="2">
+        <v>159</v>
+      </c>
+      <c r="C1" s="2">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" spans="1:29">
+      <c r="A2" s="2">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2">
+        <v>160</v>
+      </c>
+      <c r="C2" s="2">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3">
+        <f>ROUNDUP(AVERAGE(A:A),0)</f>
+        <v>133</v>
+      </c>
+      <c r="F2" s="3">
+        <f>ROUNDUP(AVERAGE(B:B),0)</f>
+        <v>157</v>
+      </c>
+      <c r="G2" s="3">
+        <f>ROUNDUP(AVERAGE(C:C),0)</f>
+        <v>44</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3" t="str">
+        <f>E2&amp;","&amp;F2&amp;","&amp;G2</f>
+        <v>133,157,44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="2">
         <v>56</v>
       </c>
-      <c r="B1" s="3">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" spans="1:3">
-      <c r="A2" s="3">
-        <v>55</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="N2" s="2">
+        <v>9</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4</v>
+      </c>
+      <c r="P2" s="5">
+        <f>799+(O2-1)*(M2+N2)+M2/2</f>
+        <v>1022</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>(944+1007)/2</f>
+        <v>975.5</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" s="2">
+        <f>1177-1118</f>
+        <v>59</v>
+      </c>
+      <c r="X2" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>1118+(W2+X2)*1</f>
+        <v>1184</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>1118+(W2+X2)*2</f>
+        <v>1250</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>1360-1317</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" spans="1:29">
+      <c r="A3" s="2">
+        <v>134</v>
+      </c>
+      <c r="B3" s="2">
+        <v>160</v>
+      </c>
+      <c r="C3" s="2">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3">
+        <f>ROUNDUP((MAX(A:A)-MIN(A:A))/2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <f>ROUNDUP((MAX(B:B)-MIN(B:B))/2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <f>ROUNDUP((MAX(C:C)-MIN(C:C))/2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3" t="str">
+        <f>E3&amp;","&amp;F3&amp;","&amp;G3</f>
+        <v>3,5,20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="2">
         <v>52</v>
       </c>
-      <c r="C2" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" spans="5:9">
-      <c r="E5" s="4">
-        <f>ROUNDUP(AVERAGE(A:A),0)</f>
-        <v>56</v>
-      </c>
-      <c r="F5" s="4">
-        <f>ROUNDUP(AVERAGE(B:B),0)</f>
-        <v>53</v>
-      </c>
-      <c r="G5" s="4">
-        <f>ROUNDUP(AVERAGE(C:C),0)</f>
-        <v>17</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="str">
-        <f>E5&amp;","&amp;F5&amp;","&amp;G5</f>
-        <v>56,53,17</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" spans="5:9">
-      <c r="E6" s="4">
-        <f>ROUNDUP((MAX(A:A)-MIN(A:A))/2,0)</f>
+      <c r="N3" s="2">
+        <v>6</v>
+      </c>
+      <c r="O3" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
-        <f>ROUNDUP((MAX(B:B)-MIN(B:B))/2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <f>ROUNDUP((MAX(C:C)-MIN(C:C))/2,0)</f>
+      <c r="P3" s="5">
+        <f>784+(O3-1)*(M3+N3)+M3/2</f>
+        <v>810</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>(944+997)/2</f>
+        <v>970.5</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W3" s="2">
+        <v>59</v>
+      </c>
+      <c r="X3" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>1134+(W3+X3)*1</f>
+        <v>1200</v>
+      </c>
+      <c r="AA3" s="2">
+        <f>1134+(W3+X3)*2</f>
+        <v>1266</v>
+      </c>
+      <c r="AC3" s="2">
+        <f>1360-1317</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="2">
+        <v>133</v>
+      </c>
+      <c r="B4" s="2">
+        <v>159</v>
+      </c>
+      <c r="C4" s="2">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="2">
+        <v>52</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4" t="str">
-        <f>E6&amp;","&amp;F6&amp;","&amp;G6</f>
-        <v>1,1,4</v>
+      <c r="P4" s="5">
+        <f>784+(O4-1)*(M4+N4)+M4/2</f>
+        <v>984</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>(944+997)/2</f>
+        <v>970.5</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W4" s="2">
+        <v>59</v>
+      </c>
+      <c r="X4" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>1134+(W4+X4)*1</f>
+        <v>1200</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>1134+(W4+X4)*2</f>
+        <v>1266</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>1360-1317</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="2">
+        <v>129</v>
+      </c>
+      <c r="B5" s="2">
+        <v>154</v>
+      </c>
+      <c r="C5" s="2">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="2">
+        <f>806-754</f>
+        <v>52</v>
+      </c>
+      <c r="N5" s="2">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2">
+        <v>6</v>
+      </c>
+      <c r="P5" s="5">
+        <f>754+(O5-1)*(M5+N5)+M5/2</f>
+        <v>1070</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>(944+997)/2</f>
+        <v>970.5</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="W5" s="2">
+        <f>221-162</f>
+        <v>59</v>
+      </c>
+      <c r="X5" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>1162+(W5+X5)*1</f>
+        <v>1228</v>
+      </c>
+      <c r="AA5" s="2">
+        <f>1162+(W5+X5)*2</f>
+        <v>1294</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC5" s="2">
+        <f>104-61</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>131</v>
+      </c>
+      <c r="B6" s="2">
+        <v>152</v>
+      </c>
+      <c r="C6" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>130</v>
+      </c>
+      <c r="B7" s="2">
+        <v>151</v>
+      </c>
+      <c r="C7" s="2">
+        <v>67</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>133</v>
+      </c>
+      <c r="B8" s="2">
+        <v>159</v>
+      </c>
+      <c r="C8" s="2">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="10:10">
+      <c r="J15" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6625,2507 +7164,2507 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="1" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="1" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="1" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="1" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="1" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="1" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="1" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="1" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="1" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="1" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="1" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="1" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="1" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="1" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="1" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="1" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="1" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="1" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="1" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="1" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="1" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="1" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="1" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="1" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="1" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="1" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="1" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="1" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="1" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="1" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="1" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="1" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="1" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="1" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="1" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="1" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="1" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="1" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="1" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="1" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="1" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="1" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="1" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="1" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="1" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="1" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="1" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="1" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="1" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="1" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="1" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="1" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="1" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="1" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="1" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="1" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="1" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="1" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="1" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="1" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="1" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="1" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="1" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="1" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="1" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="1" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="1" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="1" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="1" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="1" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="1" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="1" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="1" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="1" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="1" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="1" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="1" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="1" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="1" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="1" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="1" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="1" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="1" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="1" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="1" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="1" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="1" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="1" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="1" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="1" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="1" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="1" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="1" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="1" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="1" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="1" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="1" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="1" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="1" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="1" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="1" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="1" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="1" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="1" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="1" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="1" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="1" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="1" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="1" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="1" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="1" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="1" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="1" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="1" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="1" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="1" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="1" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="1" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="1" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="1" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="1" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="1" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="1" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="1" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="1" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="1" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="1" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="1" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="1" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="1" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="1" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="1" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="1" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="1" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="1" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="1" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="1" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="1" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="1" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="1" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="1" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="1" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="1" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="1" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="1" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="1" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="1" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" s="1" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="1" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="1" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="1" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="1" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="1" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="1" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="1" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="1" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="1" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="1" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="1" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="1" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="1" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="1" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="1" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="1" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="1" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="1" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="1" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="1" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="1" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" s="1" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="1" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" s="1" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="1" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="1" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="1" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" s="1" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="1" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" s="1" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" s="1" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" s="1" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" s="1" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="1" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="1" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" s="1" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="1" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" s="1" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="1" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" s="1" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" s="1" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" s="1" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="1" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="1" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="1" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" s="1" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" s="1" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" s="1" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="1" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" s="1" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" s="1" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" s="1" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" s="1" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" s="1" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" s="1" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" s="1" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="1" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" s="1" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="1" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" s="1" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" s="1" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" s="1" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" s="1" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" s="1" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" s="1" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="1" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" s="1" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" s="1" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" s="1" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" s="1" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="1" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="1" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="1" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="1" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="1" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="1" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="1" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="1" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="1" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="1" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="1" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="1" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="1" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="1" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="1" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="1" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" s="1" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="1" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" s="1" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" s="1" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" s="1" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="1" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" s="1" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="1" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" s="1" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" s="1" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="1" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" s="1" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="1" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" s="1" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" s="1" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="1" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="1" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="1" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" s="1" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="1" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" s="1" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="1" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" s="1" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" s="1" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810" s="1" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="1" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" s="1" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816" s="1" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" s="1" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="1" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" s="1" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="1" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" s="1" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" s="1" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" s="1" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" s="1" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834" s="1" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" s="1" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838" s="1" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" s="1" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" s="1" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" s="1" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" s="1" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" s="1" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="1" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" s="1" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854" s="1" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856" s="1" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" s="1" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" s="1" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" s="1" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" s="1" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" s="1" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" s="1" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870" s="1" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872" s="1" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" s="1" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" s="1" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" s="1" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" s="1" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" s="1" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" s="1" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886" s="1" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888" s="1" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890" s="1" t="s">
-        <v>501</v>
+        <v>545</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892" s="1" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894" s="1" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896" s="1" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898" s="1" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900" s="1" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" s="1" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904" s="1" t="s">
-        <v>508</v>
+        <v>552</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906" s="1" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908" s="1" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910" s="1" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912" s="1" t="s">
-        <v>512</v>
+        <v>556</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" s="1" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916" s="1" t="s">
-        <v>514</v>
+        <v>558</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918" s="1" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920" s="1" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922" s="1" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924" s="1" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926" s="1" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928" s="1" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930" s="1" t="s">
-        <v>521</v>
+        <v>565</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932" s="1" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934" s="1" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936" s="1" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938" s="1" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940" s="1" t="s">
-        <v>526</v>
+        <v>570</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942" s="1" t="s">
-        <v>527</v>
+        <v>571</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944" s="1" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946" s="1" t="s">
-        <v>529</v>
+        <v>573</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948" s="1" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950" s="1" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954" s="1" t="s">
-        <v>533</v>
+        <v>577</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956" s="1" t="s">
-        <v>534</v>
+        <v>578</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958" s="1" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960" s="1" t="s">
-        <v>536</v>
+        <v>580</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962" s="1" t="s">
-        <v>537</v>
+        <v>581</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964" s="1" t="s">
-        <v>538</v>
+        <v>582</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966" s="1" t="s">
-        <v>539</v>
+        <v>583</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968" s="1" t="s">
-        <v>540</v>
+        <v>584</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970" s="1" t="s">
-        <v>541</v>
+        <v>585</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972" s="1" t="s">
-        <v>542</v>
+        <v>586</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974" s="1" t="s">
-        <v>543</v>
+        <v>587</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975" s="1" t="s">
-        <v>536</v>
+        <v>580</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977" s="1" t="s">
-        <v>537</v>
+        <v>581</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979" s="1" t="s">
-        <v>538</v>
+        <v>582</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981" s="1" t="s">
-        <v>539</v>
+        <v>583</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983" s="1" t="s">
-        <v>540</v>
+        <v>584</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985" s="1" t="s">
-        <v>541</v>
+        <v>585</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987" s="1" t="s">
-        <v>542</v>
+        <v>586</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989" s="1" t="s">
-        <v>543</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/Dota2Simulator/dota2.xlsx
+++ b/Dota2Simulator/dota2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lion秒人" sheetId="5" r:id="rId1"/>
@@ -16,16 +16,16 @@
     <sheet name="作弊码" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">攻击速度!$B$5</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">攻击速度!$B$6</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">11</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">攻击速度!$B$8</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">攻击速度!#REF!</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">攻击速度!$B$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">攻击速度!#REF!</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
@@ -127,7 +127,10 @@
     <t>基础攻击间隔(BAT)</t>
   </si>
   <si>
-    <t>攻击速度（IAS）</t>
+    <t>基础攻速</t>
+  </si>
+  <si>
+    <t>显示攻速</t>
   </si>
   <si>
     <t>每秒攻击次数</t>
@@ -143,9 +146,6 @@
   </si>
   <si>
     <t>持续时间</t>
-  </si>
-  <si>
-    <t>攻速</t>
   </si>
   <si>
     <t>基础攻击前摇</t>
@@ -1887,9 +1887,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -1915,6 +1915,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1930,7 +1960,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1945,6 +2014,13 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1954,68 +2030,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2029,31 +2052,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2068,31 +2068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2104,7 +2086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,7 +2104,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2134,7 +2164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2146,7 +2176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,19 +2188,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2182,61 +2218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2248,7 +2236,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2278,6 +2278,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2301,41 +2316,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2359,6 +2344,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2367,10 +2367,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2379,133 +2379,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4666,16 +4666,14 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="20.25" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="10"/>
-    <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="5" width="12.625" style="10"/>
+    <col min="2" max="5" width="12.625" style="10"/>
     <col min="6" max="6" width="9" style="10"/>
     <col min="12" max="16384" width="9" style="10"/>
   </cols>
@@ -4693,7 +4691,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="10">
-        <v>0.88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4701,8 +4699,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="10">
-        <f>B2/B1</f>
-        <v>0.517647058823529</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4710,8 +4707,8 @@
         <v>18</v>
       </c>
       <c r="B4" s="10">
-        <f>B1/B2</f>
-        <v>1.93181818181818</v>
+        <f>B3/100/B1</f>
+        <v>0.770588235294118</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4719,8 +4716,8 @@
         <v>19</v>
       </c>
       <c r="B5" s="10">
-        <f>B7*B3</f>
-        <v>2.58823529411765</v>
+        <f>B1/B3*100</f>
+        <v>1.29770992366412</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4728,8 +4725,8 @@
         <v>20</v>
       </c>
       <c r="B6" s="10">
-        <f>INT(B5)</f>
-        <v>2</v>
+        <f>B8*B4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4737,7 +4734,8 @@
         <v>21</v>
       </c>
       <c r="B7" s="10">
-        <v>5</v>
+        <f>INT(B6)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4745,7 +4743,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="10">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4753,7 +4751,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4761,8 +4759,8 @@
         <v>24</v>
       </c>
       <c r="B10" s="10">
-        <f>B9/B2</f>
-        <v>0.454545454545455</v>
+        <f>B9/B3*100</f>
+        <v>0.229007633587786</v>
       </c>
     </row>
   </sheetData>
@@ -6724,8 +6722,8 @@
   <sheetPr/>
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/Dota2Simulator/dota2.xlsx
+++ b/Dota2Simulator/dota2.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Lion秒人" sheetId="5" r:id="rId1"/>
@@ -43,18 +43,15 @@
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Lion秒人!$C$5</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Lion秒人!$B$17</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">169.44</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Lion秒人!$B$6</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">714</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Lion秒人!$B$3</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Lion秒人!$B$6</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">0</definedName>
@@ -76,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="605">
   <si>
     <t>增加的伤害</t>
   </si>
@@ -87,15 +84,18 @@
     <t>大招</t>
   </si>
   <si>
-    <t>技能增强</t>
+    <t>层数</t>
+  </si>
+  <si>
+    <t>实际技能增强</t>
+  </si>
+  <si>
+    <t>红杖等级</t>
   </si>
   <si>
     <t>纷争</t>
   </si>
   <si>
-    <t>层数</t>
-  </si>
-  <si>
     <t>刺</t>
   </si>
   <si>
@@ -105,8 +105,11 @@
     <t>虚灵</t>
   </si>
   <si>
+    <t>其他伤害</t>
+  </si>
+  <si>
     <t>其他技能伤害
-（红杖）</t>
+（含红杖）</t>
   </si>
   <si>
     <t>其他减伤</t>
@@ -118,12 +121,18 @@
     <t>总技能伤害</t>
   </si>
   <si>
-    <t>纷争后伤害</t>
+    <t>全部加强后伤害</t>
   </si>
   <si>
     <t>实际伤害</t>
   </si>
   <si>
+    <t>红杖伤害</t>
+  </si>
+  <si>
+    <t>实际伤害增强率</t>
+  </si>
+  <si>
     <t>基础攻击间隔(BAT)</t>
   </si>
   <si>
@@ -415,6 +424,12 @@
     <t xml:space="preserve">    真实宝石，放地上可以用来排高台的视野</t>
   </si>
   <si>
+    <t>技能初始状态</t>
+  </si>
+  <si>
+    <t>一次循环需要时间</t>
+  </si>
+  <si>
     <t>7.31b</t>
   </si>
   <si>
@@ -469,6 +484,12 @@
     <t>中立道具</t>
   </si>
   <si>
+    <t>释放技能状态</t>
+  </si>
+  <si>
+    <t>按技能并到开始释放</t>
+  </si>
+  <si>
     <t>4技能</t>
   </si>
   <si>
@@ -499,6 +520,12 @@
     <t>1317-1360</t>
   </si>
   <si>
+    <t>技能释放完毕状态</t>
+  </si>
+  <si>
+    <t>开始释放到释放结束</t>
+  </si>
+  <si>
     <t>5技能魔晶（A帐魔晶6技能）</t>
   </si>
   <si>
@@ -566,24 +593,6 @@
   </si>
   <si>
     <t>-perfectworld</t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>q5</t>
-  </si>
-  <si>
-    <t>134,129,105</t>
-  </si>
-  <si>
-    <t>74,113,181</t>
-  </si>
-  <si>
-    <t>12,14,25</t>
-  </si>
-  <si>
-    <t>1,1,3</t>
   </si>
   <si>
     <t>作弊码</t>
@@ -1887,13 +1896,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1906,42 +1915,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF6A9955"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1959,16 +1932,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1990,14 +1977,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -2005,8 +1984,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2021,8 +2023,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2031,14 +2042,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2068,19 +2071,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,109 +2113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2212,19 +2131,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2236,7 +2161,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2248,7 +2239,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2259,6 +2262,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2292,21 +2304,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2319,17 +2316,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2367,10 +2370,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2379,148 +2382,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2528,13 +2531,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -4497,268 +4497,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="15.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="10" customWidth="1"/>
+    <col min="1" max="2" width="15.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="9" customWidth="1"/>
     <col min="4" max="4" width="12.625"/>
+    <col min="7" max="7" width="13.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="9">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
-        <f>B13*(1+0.18*B5)*(B4)*(1-B2)*(1-B11)*(1+0.4*B9)</f>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13">
+      <c r="C5" s="9">
+        <f>B15*(1+0.18*B7)*(B5)*(1-B2)*(1-B13)*(1+0.4*B10)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="10">
-        <f>B13*(0.18*B5)*(1+B4)*(1-B2)*(1-B11)*(1+0.4*B9)</f>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="C6" s="9">
+        <f>B19*(1-B2)*(1-B13)*(1+0.4*B10)*(1+0.18*B7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <f>B15*(0.18*B7)*(1+B5)*(1-B2)*(1-B13)*(1+0.4*B10)</f>
+        <v>182.952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <f>B8*291.2*(1-B2)*(1-B13)*(1+0.4*B10)*(1+0.18*B7)</f>
+        <v>257.712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
         <v>0</v>
       </c>
-      <c r="C7" s="10">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="C9" s="9">
+        <f>(20*B9*B4)*(1-B2)*(1-B13)*(1+0.4*B10)*(1+0.18*B7)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="10">
-        <f>(20*B8*B6)*(1-B2)*(1-B11)*(1+0.4*B9)*(1+0.18*B5)</f>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="C10" s="9">
+        <f>B16*(1-B2)*(1-B13)*(0.4*B10)+B15*(1+0.18*B7)*(0.12)*(1-B2)*(1-B13)*(1+0.4*B10)*B10</f>
         <v>0</v>
       </c>
-      <c r="C9" s="10">
-        <f>B14*(1-B2)*(1-B11)*(0.4*B9)</f>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9">
+        <f>B11*(1-B2)*(1-B13)*(1+0.4*B10)*(1+0.18*B7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:3">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
-        <f>B10*(1-B2)*(1-B11)*(1+0.4*B9)*(1+0.18*B5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    <row r="12" ht="27" spans="1:3">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
-        <f>(B3+40*B6+20*B6*B8)</f>
-        <v>950</v>
+      <c r="B12" s="9">
+        <f>B11+B19</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <f>B12*(1-B2)*(1-B13)*(1+0.4*B10)*(1+0.18*B7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
-        <f>B12+260*B7+B10</f>
-        <v>950</v>
+      <c r="B13" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
-        <f>B13*(1+0.18*B5)*(1+B4)</f>
-        <v>950</v>
+      <c r="B14" s="9">
+        <f>(B3+40*B4+20*B4*B9)</f>
+        <v>1064</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
-        <f>B13*(1-B2)*(1-B11)*(1+0.4*B9)*(1+0.18*B5)</f>
-        <v>712.5</v>
+      <c r="B15" s="9">
+        <f>B14+291.2*B8+B12</f>
+        <v>1355.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <f>B15*(1+0.18*B7)*(1+B5)*(1+0.4*B10)</f>
+        <v>1599.136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <f>B16*(1-B2)*(1-B13)</f>
+        <v>1199.352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <f>IF(B6=0,0,B6*112+336)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <f>(1-B2)*(1-B13)*(1+0.4*B10)*(1+0.18*B7)*(1+B5)</f>
+        <v>0.885</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="10" customWidth="1"/>
-    <col min="2" max="5" width="12.625" style="10"/>
-    <col min="6" max="6" width="9" style="10"/>
-    <col min="12" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="20.25" style="9" customWidth="1"/>
+    <col min="2" max="5" width="12.625" style="9"/>
+    <col min="6" max="6" width="9" style="9"/>
+    <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="10">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9">
         <v>1.7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9">
         <f>B3/100/B1</f>
         <v>0.770588235294118</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9">
         <f>B1/B3*100</f>
         <v>1.29770992366412</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9">
         <f>B8*B4</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="9">
         <f>INT(B6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="9">
         <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9">
         <f>B9/B3*100</f>
         <v>0.229007633587786</v>
       </c>
@@ -4772,7 +4816,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4781,102 +4825,102 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="59.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9" style="10"/>
-    <col min="5" max="5" width="12.625" style="10"/>
+    <col min="1" max="1" width="59.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
+    <col min="5" max="5" width="12.625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>26</v>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9">
         <v>0.9</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9">
         <v>0.8</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>118</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:5">
-      <c r="A5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9">
         <v>0.7</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>135</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>230</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <f>D5/180*60</f>
         <v>76.6666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9">
         <v>0.65</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>145</v>
       </c>
     </row>
     <row r="7" ht="108" spans="1:3">
-      <c r="A7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="A7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9">
         <v>0.6</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>157</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="1:3">
-      <c r="A8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="A8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="9">
         <v>0.5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>188</v>
       </c>
     </row>
@@ -4888,7 +4932,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4905,21 +4949,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B1">
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -4934,7 +4978,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <f>B1+B2</f>
@@ -4950,7 +4994,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <f>0.06*B1/(1+0.06*ABS(B1))</f>
@@ -4966,7 +5010,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <f>1-B4</f>
@@ -4982,7 +5026,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>5535</v>
@@ -4997,7 +5041,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <f>B6/B5</f>
@@ -5013,7 +5057,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <f>B6/(1-0.06*B3/(1+0.06*ABS(B3)))-B7</f>
@@ -5029,9 +5073,9 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="9">
+        <v>46</v>
+      </c>
+      <c r="B9" s="8">
         <f>B8/B7</f>
         <v>0.0545454545454545</v>
       </c>
@@ -5160,13 +5204,13 @@
         <v>-0.642857142857143</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="4:11">
@@ -5178,7 +5222,7 @@
         <v>-0.635036496350365</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -5200,7 +5244,7 @@
         <v>-0.626865671641791</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -5222,7 +5266,7 @@
         <v>-0.618320610687023</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I25">
         <v>5</v>
@@ -5244,7 +5288,7 @@
         <v>-0.609375</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I26">
         <v>10</v>
@@ -5266,7 +5310,7 @@
         <v>-0.6</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I27">
         <v>3</v>
@@ -6135,7 +6179,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6146,22 +6190,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6169,39 +6213,39 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
         <v>59</v>
       </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -6236,7 +6280,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -6271,7 +6315,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -6309,30 +6353,30 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <f>IF($A$10+B7&gt;60,$A$10+B7-60,$A$10+B7)</f>
@@ -6377,7 +6421,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <f>IF($A$10+B8&gt;60,$A$10+B8-60,$A$10+B8)</f>
@@ -6422,7 +6466,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <f>IF($A$10+B9&gt;60,$A$10+B9-60,$A$10+B9)</f>
@@ -6467,247 +6511,247 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -6719,526 +6763,486 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AC26"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="2" customWidth="1"/>
-    <col min="4" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="12.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="2" customWidth="1"/>
-    <col min="12" max="17" width="9" style="2"/>
-    <col min="18" max="18" width="9.25" style="2"/>
-    <col min="19" max="19" width="12.125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.25" style="2"/>
-    <col min="21" max="21" width="12.125" style="2" customWidth="1"/>
-    <col min="22" max="24" width="9" style="2"/>
-    <col min="25" max="25" width="12.25" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="3" customWidth="1"/>
+    <col min="7" max="9" width="4.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="3.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="28.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.125" style="3" customWidth="1"/>
+    <col min="14" max="19" width="9" style="3"/>
+    <col min="20" max="20" width="9.25" style="3"/>
+    <col min="21" max="21" width="12.125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.25" style="3"/>
+    <col min="23" max="23" width="12.125" style="3" customWidth="1"/>
+    <col min="24" max="26" width="9" style="3"/>
+    <col min="27" max="27" width="12.25" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:29">
-      <c r="A1" s="3">
+    <row r="1" spans="1:31">
+      <c r="A1" s="2">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3">
+        <v>147</v>
+      </c>
+      <c r="C1" s="3">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="3">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="2">
-        <v>119</v>
-      </c>
-      <c r="C1" s="2">
-        <v>86</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="W1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:29">
-      <c r="A2" s="3">
-        <v>126</v>
-      </c>
-      <c r="B2" s="2">
-        <v>120</v>
-      </c>
-      <c r="C2" s="2">
-        <v>87</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="Y1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" spans="1:31">
+      <c r="A2" s="2">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>148</v>
+      </c>
+      <c r="C2" s="3">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="3">
+        <v>786</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="4">
         <f>ROUNDUP(AVERAGE(A:A),0)</f>
-        <v>125</v>
-      </c>
-      <c r="F2" s="4">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4">
         <f>ROUNDUP(AVERAGE(B:B),0)</f>
-        <v>120</v>
-      </c>
-      <c r="G2" s="4">
+        <v>148</v>
+      </c>
+      <c r="I2" s="4">
         <f>ROUNDUP(AVERAGE(C:C),0)</f>
-        <v>89</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4" t="str">
-        <f>E2&amp;","&amp;F2&amp;","&amp;G2</f>
-        <v>125,120,89</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M2" s="2">
+        <v>33</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="str">
+        <f>G2&amp;","&amp;H2&amp;","&amp;I2</f>
+        <v>8,148,33</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" s="3">
         <v>56</v>
       </c>
-      <c r="N2" s="2">
+      <c r="P2" s="3">
         <v>9</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="3">
         <v>2</v>
       </c>
-      <c r="P2" s="8">
-        <f>799+(O2-1)*(M2+N2)+M2/2</f>
+      <c r="R2" s="6">
+        <f>799+(Q2-1)*(O2+P2)+O2/2</f>
         <v>892</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="3">
         <f>(944+1007)/2</f>
         <v>975.5</v>
       </c>
-      <c r="R2" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="W2" s="2">
+      <c r="T2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y2" s="3">
         <f>1177-1118</f>
         <v>59</v>
       </c>
-      <c r="X2" s="2">
+      <c r="Z2" s="3">
         <v>7</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z2" s="2">
-        <f>1118+(W2+X2)*1</f>
+      <c r="AA2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>1118+(Y2+Z2)*1</f>
         <v>1184</v>
       </c>
-      <c r="AA2" s="2">
-        <f>1118+(W2+X2)*2</f>
+      <c r="AC2" s="3">
+        <f>1118+(Y2+Z2)*2</f>
         <v>1250</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC2" s="2">
+      <c r="AD2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE2" s="3">
         <f>1360-1317</f>
         <v>43</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:29">
-      <c r="A3" s="3">
-        <v>124</v>
-      </c>
-      <c r="B3" s="2">
-        <v>119</v>
-      </c>
-      <c r="C3" s="2">
-        <v>94</v>
-      </c>
-      <c r="E3" s="4">
+    <row r="3" ht="13.5" spans="4:31">
+      <c r="D3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="3">
+        <v>298</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="4">
         <f>ROUNDUP((MAX(A:A)-MIN(A:A))/2,0)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="4">
         <f>ROUNDUP((MAX(B:B)-MIN(B:B))/2,0)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="I3" s="4">
         <f>ROUNDUP((MAX(C:C)-MIN(C:C))/2,0)</f>
         <v>4</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4" t="str">
-        <f>E3&amp;","&amp;F3&amp;","&amp;G3</f>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4" t="str">
+        <f>G3&amp;","&amp;H3&amp;","&amp;I3</f>
         <v>1,1,4</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="L3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" s="3">
         <v>52</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="3">
         <v>6</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="3">
         <v>2</v>
       </c>
-      <c r="P3" s="8">
-        <f>784+(O3-1)*(M3+N3)+M3/2</f>
+      <c r="R3" s="6">
+        <f>784+(Q3-1)*(O3+P3)+O3/2</f>
         <v>868</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="3">
         <f>(944+997)/2</f>
         <v>970.5</v>
       </c>
-      <c r="R3" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W3" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="U3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="W3" s="2">
+      <c r="X3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y3" s="3">
         <v>59</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Z3" s="3">
         <v>7</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z3" s="2">
-        <f>1134+(W3+X3)*1</f>
+      <c r="AA3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>1134+(Y3+Z3)*1</f>
         <v>1200</v>
       </c>
-      <c r="AA3" s="2">
-        <f>1134+(W3+X3)*2</f>
+      <c r="AC3" s="3">
+        <f>1134+(Y3+Z3)*2</f>
         <v>1266</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AE3" s="3">
         <f>1360-1317</f>
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="10:29">
-      <c r="J4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M4" s="2">
+    <row r="4" spans="12:31">
+      <c r="L4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" s="3">
         <v>52</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="3">
         <v>6</v>
       </c>
-      <c r="O4" s="2">
-        <v>2</v>
-      </c>
-      <c r="P4" s="8">
-        <f>784+(O4-1)*(M4+N4)+M4/2</f>
-        <v>868</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6">
+        <f>784+(Q4-1)*(O4+P4)+O4/2</f>
+        <v>810</v>
+      </c>
+      <c r="S4" s="3">
         <f>(944+997)/2</f>
         <v>970.5</v>
       </c>
-      <c r="R4" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W4" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="U4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="W4" s="2">
+      <c r="X4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y4" s="3">
         <v>59</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Z4" s="3">
         <v>7</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z4" s="2">
-        <f>1134+(W4+X4)*1</f>
+      <c r="AA4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB4" s="3">
+        <f>1134+(Y4+Z4)*1</f>
         <v>1200</v>
       </c>
-      <c r="AA4" s="2">
-        <f>1134+(W4+X4)*2</f>
+      <c r="AC4" s="3">
+        <f>1134+(Y4+Z4)*2</f>
         <v>1266</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AE4" s="3">
         <f>1360-1317</f>
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="6"/>
-      <c r="J5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M5" s="2">
+    <row r="5" spans="12:31">
+      <c r="L5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" s="3">
         <f>806-754</f>
         <v>52</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="3">
         <v>6</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="3">
         <v>2</v>
       </c>
-      <c r="P5" s="8">
-        <f>754+(O5-1)*(M5+N5)+M5/2</f>
+      <c r="R5" s="6">
+        <f>754+(Q5-1)*(O5+P5)+O5/2</f>
         <v>838</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="3">
         <f>(944+997)/2</f>
         <v>970.5</v>
       </c>
-      <c r="R5" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="U5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="W5" s="2">
+      <c r="T5" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y5" s="3">
         <f>221-162</f>
         <v>59</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Z5" s="3">
         <v>7</v>
       </c>
-      <c r="Y5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z5" s="2">
-        <f>1162+(W5+X5)*1</f>
+      <c r="AA5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB5" s="3">
+        <f>1162+(Y5+Z5)*1</f>
         <v>1228</v>
       </c>
-      <c r="AA5" s="2">
-        <f>1162+(W5+X5)*2</f>
+      <c r="AC5" s="3">
+        <f>1162+(Y5+Z5)*2</f>
         <v>1294</v>
       </c>
-      <c r="AB5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC5" s="2">
+      <c r="AD5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE5" s="3">
         <f>104-61</f>
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="7"/>
-      <c r="J7" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="7"/>
-      <c r="J8" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="J10" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="7"/>
-      <c r="J12" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="7"/>
-      <c r="J13" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="7"/>
-      <c r="J14" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="7"/>
-      <c r="J15" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="7"/>
-      <c r="J16" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="7"/>
-      <c r="J17" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="7"/>
-      <c r="J22" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7"/>
-      <c r="E24" s="2" t="s">
+    <row r="7" spans="12:12">
+      <c r="L7" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="2" t="s">
+    </row>
+    <row r="8" spans="12:12">
+      <c r="L8" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7"/>
-      <c r="E25" s="2" t="s">
+    <row r="10" spans="12:12">
+      <c r="L10" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="2" t="s">
+    </row>
+    <row r="12" spans="12:12">
+      <c r="L12" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="2" t="s">
+    <row r="13" spans="12:12">
+      <c r="L13" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="2" t="s">
+    </row>
+    <row r="14" spans="12:12">
+      <c r="L14" s="3" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="12:12">
+      <c r="L15" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="12:12">
+      <c r="L16" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="12:12">
+      <c r="L22" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -7249,11 +7253,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:A989"/>
   <sheetViews>
     <sheetView topLeftCell="A750" workbookViewId="0">
-      <selection activeCell="A771" sqref="A771"/>
+      <selection activeCell="A793" sqref="A793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7263,2507 +7267,2507 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904" s="1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910" s="1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912" s="1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918" s="1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920" s="1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940" s="1" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944" s="1" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946" s="1" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950" s="1" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954" s="1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956" s="1" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958" s="1" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960" s="1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962" s="1" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968" s="1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970" s="1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974" s="1" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975" s="1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977" s="1" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983" s="1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985" s="1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989" s="1" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/Dota2Simulator/dota2.xlsx
+++ b/Dota2Simulator/dota2.xlsx
@@ -7,27 +7,52 @@
     <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
-    <sheet name="Lion秒人" sheetId="5" r:id="rId1"/>
-    <sheet name="攻击速度" sheetId="1" r:id="rId2"/>
-    <sheet name="转身速度" sheetId="10" r:id="rId3"/>
-    <sheet name="护甲" sheetId="2" r:id="rId4"/>
-    <sheet name="基本技巧" sheetId="3" r:id="rId5"/>
-    <sheet name="找色" sheetId="8" r:id="rId6"/>
-    <sheet name="作弊码" sheetId="6" r:id="rId7"/>
+    <sheet name="工会" sheetId="11" r:id="rId1"/>
+    <sheet name="Lion秒人" sheetId="5" r:id="rId2"/>
+    <sheet name="攻击速度" sheetId="1" r:id="rId3"/>
+    <sheet name="转身速度" sheetId="10" r:id="rId4"/>
+    <sheet name="护甲" sheetId="2" r:id="rId5"/>
+    <sheet name="基本技巧" sheetId="3" r:id="rId6"/>
+    <sheet name="找色" sheetId="8" r:id="rId7"/>
+    <sheet name="作弊码" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">攻击速度!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">攻击速度!$B$6</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">11</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">攻击速度!#REF!</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">攻击速度!#REF!</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">4</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Lion秒人!$B$17</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">11</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">攻击速度!#REF!</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">714</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Lion秒人!$B$3</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">攻击速度!#REF!</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">0</definedName>
@@ -43,37 +68,22 @@
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Lion秒人!$B$17</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">714</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Lion秒人!$B$3</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_lin" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="608">
+  <si>
+    <t>缠绕的任务用神域</t>
+  </si>
+  <si>
+    <t>操控物击杀用剧毒</t>
+  </si>
+  <si>
+    <t>隐身击杀用隐刺</t>
+  </si>
   <si>
     <t>增加的伤害</t>
   </si>
@@ -1897,10 +1907,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1919,6 +1929,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1927,28 +1974,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1963,29 +1988,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2033,7 +2051,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2041,22 +2059,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2071,7 +2081,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2083,25 +2141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,7 +2153,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2125,25 +2189,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2155,103 +2243,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2270,6 +2280,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2313,15 +2332,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2333,17 +2343,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2362,6 +2361,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2370,10 +2380,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2382,37 +2392,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2421,94 +2428,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4497,11 +4507,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4514,12 +4559,12 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="11">
         <v>0.25</v>
@@ -4527,7 +4572,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>1064</v>
@@ -4535,7 +4580,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -4543,7 +4588,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="11">
         <v>0</v>
@@ -4555,7 +4600,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -4567,7 +4612,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
@@ -4579,7 +4624,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -4591,7 +4636,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
@@ -4603,7 +4648,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="13">
         <v>0</v>
@@ -4615,9 +4660,8 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9"/>
+        <v>13</v>
+      </c>
       <c r="C11" s="9">
         <f>B11*(1-B2)*(1-B13)*(1+0.4*B10)*(1+0.18*B7)</f>
         <v>0</v>
@@ -4625,7 +4669,7 @@
     </row>
     <row r="12" ht="27" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9">
         <f>B11+B19</f>
@@ -4638,7 +4682,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="11">
         <v>0</v>
@@ -4646,7 +4690,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9">
         <f>(B3+40*B4+20*B4*B9)</f>
@@ -4655,7 +4699,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9">
         <f>B14+291.2*B8+B12</f>
@@ -4664,7 +4708,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9">
         <f>B15*(1+0.18*B7)*(1+B5)*(1+0.4*B10)</f>
@@ -4673,7 +4717,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9">
         <f>B16*(1-B2)*(1-B13)</f>
@@ -4682,7 +4726,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9">
         <f>IF(B6=0,0,B6*112+336)</f>
@@ -4691,7 +4735,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20" s="9">
         <f>(1-B2)*(1-B13)*(1+0.4*B10)*(1+0.18*B7)*(1+B5)</f>
@@ -4705,7 +4749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B10"/>
@@ -4724,7 +4768,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="9">
         <v>1.7</v>
@@ -4732,7 +4776,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9">
         <v>100</v>
@@ -4740,7 +4784,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9">
         <v>131</v>
@@ -4748,7 +4792,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9">
         <f>B3/100/B1</f>
@@ -4757,7 +4801,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="9">
         <f>B1/B3*100</f>
@@ -4766,7 +4810,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6" s="9">
         <f>B8*B4</f>
@@ -4775,7 +4819,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" s="9">
         <f>INT(B6)</f>
@@ -4784,7 +4828,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
@@ -4792,7 +4836,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" s="9">
         <v>0.3</v>
@@ -4800,7 +4844,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" s="9">
         <f>B9/B3*100</f>
@@ -4814,7 +4858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E8"/>
@@ -4834,15 +4878,15 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -4853,7 +4897,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="9">
         <v>0.9</v>
@@ -4864,7 +4908,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9">
         <v>0.8</v>
@@ -4875,7 +4919,7 @@
     </row>
     <row r="5" ht="27" spans="1:5">
       <c r="A5" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="9">
         <v>0.7</v>
@@ -4893,7 +4937,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" s="9">
         <v>0.65</v>
@@ -4904,7 +4948,7 @@
     </row>
     <row r="7" ht="108" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7" s="9">
         <v>0.6</v>
@@ -4915,7 +4959,7 @@
     </row>
     <row r="8" ht="94.5" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8" s="9">
         <v>0.5</v>
@@ -4930,7 +4974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K121"/>
@@ -4949,21 +4993,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1">
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -4978,7 +5022,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <f>B1+B2</f>
@@ -4994,7 +5038,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <f>0.06*B1/(1+0.06*ABS(B1))</f>
@@ -5010,7 +5054,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <f>1-B4</f>
@@ -5026,7 +5070,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>5535</v>
@@ -5041,7 +5085,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <f>B6/B5</f>
@@ -5057,7 +5101,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <f>B6/(1-0.06*B3/(1+0.06*ABS(B3)))-B7</f>
@@ -5073,7 +5117,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8">
         <f>B8/B7</f>
@@ -5204,13 +5248,13 @@
         <v>-0.642857142857143</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="4:11">
@@ -5222,7 +5266,7 @@
         <v>-0.635036496350365</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -5244,7 +5288,7 @@
         <v>-0.626865671641791</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -5266,7 +5310,7 @@
         <v>-0.618320610687023</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I25">
         <v>5</v>
@@ -5288,7 +5332,7 @@
         <v>-0.609375</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I26">
         <v>10</v>
@@ -5310,7 +5354,7 @@
         <v>-0.6</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I27">
         <v>3</v>
@@ -6177,7 +6221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K76"/>
@@ -6190,22 +6234,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6213,39 +6257,39 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
         <v>62</v>
       </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
-      </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -6280,7 +6324,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -6315,7 +6359,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -6353,30 +6397,30 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <f>IF($A$10+B7&gt;60,$A$10+B7-60,$A$10+B7)</f>
@@ -6421,7 +6465,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <f>IF($A$10+B8&gt;60,$A$10+B8-60,$A$10+B8)</f>
@@ -6466,7 +6510,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <f>IF($A$10+B9&gt;60,$A$10+B9-60,$A$10+B9)</f>
@@ -6511,247 +6555,247 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6761,7 +6805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AE22"/>
@@ -6803,70 +6847,70 @@
         <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E1" s="3">
         <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" ht="13.5" spans="1:31">
@@ -6880,13 +6924,13 @@
         <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E2" s="3">
         <v>786</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G2" s="4">
         <f>ROUNDUP(AVERAGE(A:A),0)</f>
@@ -6906,13 +6950,13 @@
         <v>8,148,33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O2" s="3">
         <v>56</v>
@@ -6932,19 +6976,19 @@
         <v>975.5</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Y2" s="3">
         <f>1177-1118</f>
@@ -6954,7 +6998,7 @@
         <v>7</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AB2" s="3">
         <f>1118+(Y2+Z2)*1</f>
@@ -6965,7 +7009,7 @@
         <v>1250</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE2" s="3">
         <f>1360-1317</f>
@@ -6974,13 +7018,13 @@
     </row>
     <row r="3" ht="13.5" spans="4:31">
       <c r="D3" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E3" s="3">
         <v>298</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G3" s="4">
         <f>ROUNDUP((MAX(A:A)-MIN(A:A))/2,0)</f>
@@ -7000,13 +7044,13 @@
         <v>1,1,4</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O3" s="3">
         <v>52</v>
@@ -7026,19 +7070,19 @@
         <v>970.5</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="W3" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Y3" s="3">
         <v>59</v>
@@ -7047,7 +7091,7 @@
         <v>7</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AB3" s="3">
         <f>1134+(Y3+Z3)*1</f>
@@ -7064,13 +7108,13 @@
     </row>
     <row r="4" spans="12:31">
       <c r="L4" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O4" s="3">
         <v>52</v>
@@ -7090,19 +7134,19 @@
         <v>970.5</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Y4" s="3">
         <v>59</v>
@@ -7111,7 +7155,7 @@
         <v>7</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AB4" s="3">
         <f>1134+(Y4+Z4)*1</f>
@@ -7128,13 +7172,13 @@
     </row>
     <row r="5" spans="12:31">
       <c r="L5" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O5" s="3">
         <f>806-754</f>
@@ -7155,19 +7199,19 @@
         <v>970.5</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Y5" s="3">
         <f>221-162</f>
@@ -7177,7 +7221,7 @@
         <v>7</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AB5" s="3">
         <f>1162+(Y5+Z5)*1</f>
@@ -7188,7 +7232,7 @@
         <v>1294</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AE5" s="3">
         <f>104-61</f>
@@ -7197,52 +7241,52 @@
     </row>
     <row r="7" spans="12:12">
       <c r="L7" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="12:12">
       <c r="L8" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="12:12">
       <c r="L10" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="L12" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="12:12">
       <c r="L13" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="12:12">
       <c r="L14" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="12:12">
       <c r="L15" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="12:12">
       <c r="L16" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="12:12">
       <c r="L22" s="14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7251,7 +7295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:A989"/>
@@ -7267,2507 +7311,2507 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934" s="1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958" s="1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962" s="1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974" s="1" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977" s="1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989" s="1" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/Dota2Simulator/dota2.xlsx
+++ b/Dota2Simulator/dota2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工会" sheetId="11" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="612">
   <si>
     <t>缠绕的任务用神域</t>
   </si>
@@ -584,22 +584,34 @@
     <t>放完技能需要额外50毫秒时间等待</t>
   </si>
   <si>
+    <t>中心点往左1，最后恢复原色，用于去后摇</t>
+  </si>
+  <si>
+    <t>不占读条的Y坐标 956</t>
+  </si>
+  <si>
+    <t>技能释放流程</t>
+  </si>
+  <si>
     <t>技能CD 前摇技能绿色覆盖</t>
   </si>
   <si>
-    <t>后开始读数，转黑，转原始色</t>
-  </si>
-  <si>
-    <t>白色条刷新整个技能</t>
-  </si>
-  <si>
-    <t>实际上转原始色即可释放技能</t>
+    <t>后开始读数，转灰色</t>
+  </si>
+  <si>
+    <t>白色条从左下角刷新到右上角</t>
+  </si>
+  <si>
+    <t>实际上白色条开始移动即可释放技能</t>
   </si>
   <si>
     <t>白色过渡动画基本要200毫秒</t>
   </si>
   <si>
     <t>相当于一些短技能的前摇技能</t>
+  </si>
+  <si>
+    <t>左下角</t>
   </si>
   <si>
     <t>-perfectworld</t>
@@ -1906,10 +1918,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
@@ -1928,31 +1940,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1972,10 +1962,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1986,9 +1977,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2051,7 +2048,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2059,14 +2056,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2081,61 +2093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2153,7 +2111,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,13 +2165,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,13 +2195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2213,7 +2213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2225,25 +2231,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2259,12 +2277,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2272,24 +2284,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2332,6 +2326,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2343,6 +2346,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2364,11 +2378,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2380,10 +2392,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2392,133 +2404,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2529,7 +2541,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2541,10 +2553,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -4510,7 +4522,7 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -4542,7 +4554,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6808,23 +6820,22 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AE22"/>
+  <dimension ref="D1:AE28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="3" customWidth="1"/>
+    <col min="1" max="3" width="5.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.625" style="3" customWidth="1"/>
     <col min="7" max="9" width="4.375" style="3" customWidth="1"/>
     <col min="10" max="10" width="3.25" style="3" customWidth="1"/>
     <col min="11" max="11" width="12.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="28.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.875" style="3" customWidth="1"/>
     <col min="13" max="13" width="10.125" style="3" customWidth="1"/>
     <col min="14" max="19" width="9" style="3"/>
     <col min="20" max="20" width="9.25" style="3"/>
@@ -6836,16 +6847,7 @@
     <col min="28" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="2">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3">
-        <v>147</v>
-      </c>
-      <c r="C1" s="3">
-        <v>29</v>
-      </c>
+    <row r="1" spans="4:31">
       <c r="D1" s="3" t="s">
         <v>119</v>
       </c>
@@ -6913,16 +6915,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:31">
-      <c r="A2" s="2">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3">
-        <v>148</v>
-      </c>
-      <c r="C2" s="3">
-        <v>36</v>
-      </c>
+    <row r="2" ht="13.5" spans="4:31">
       <c r="D2" s="3" t="s">
         <v>139</v>
       </c>
@@ -6933,21 +6926,21 @@
         <v>140</v>
       </c>
       <c r="G2" s="4">
-        <f>ROUNDUP(AVERAGE(A:A),0)</f>
-        <v>8</v>
+        <f>ROUNDUP((MAX(A:A)+MIN(A:A))/2,0)</f>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <f>ROUNDUP(AVERAGE(B:B),0)</f>
-        <v>148</v>
+        <f>ROUNDUP((MAX(B:B)+MIN(B:B))/2,0)</f>
+        <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>ROUNDUP(AVERAGE(C:C),0)</f>
-        <v>33</v>
+        <f>ROUNDUP((MAX(C:C)+MIN(C:C))/2,0)</f>
+        <v>0</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4" t="str">
         <f>G2&amp;","&amp;H2&amp;","&amp;I2</f>
-        <v>8,148,33</v>
+        <v>0,0,0</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>141</v>
@@ -6965,11 +6958,11 @@
         <v>9</v>
       </c>
       <c r="Q2" s="3">
-        <v>2</v>
-      </c>
-      <c r="R2" s="6">
+        <v>4</v>
+      </c>
+      <c r="R2" s="7">
         <f>799+(Q2-1)*(O2+P2)+O2/2</f>
-        <v>892</v>
+        <v>1022</v>
       </c>
       <c r="S2" s="3">
         <f>(944+1007)/2</f>
@@ -7028,20 +7021,20 @@
       </c>
       <c r="G3" s="4">
         <f>ROUNDUP((MAX(A:A)-MIN(A:A))/2,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
         <f>ROUNDUP((MAX(B:B)-MIN(B:B))/2,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4">
         <f>ROUNDUP((MAX(C:C)-MIN(C:C))/2,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4" t="str">
         <f>G3&amp;","&amp;H3&amp;","&amp;I3</f>
-        <v>1,1,4</v>
+        <v>0,0,0</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>153</v>
@@ -7059,11 +7052,11 @@
         <v>6</v>
       </c>
       <c r="Q3" s="3">
-        <v>2</v>
-      </c>
-      <c r="R3" s="6">
+        <v>5</v>
+      </c>
+      <c r="R3" s="7">
         <f>784+(Q3-1)*(O3+P3)+O3/2</f>
-        <v>868</v>
+        <v>1042</v>
       </c>
       <c r="S3" s="3">
         <f>(944+997)/2</f>
@@ -7123,11 +7116,11 @@
         <v>6</v>
       </c>
       <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6">
+        <v>4</v>
+      </c>
+      <c r="R4" s="7">
         <f>784+(Q4-1)*(O4+P4)+O4/2</f>
-        <v>810</v>
+        <v>984</v>
       </c>
       <c r="S4" s="3">
         <f>(944+997)/2</f>
@@ -7188,11 +7181,11 @@
         <v>6</v>
       </c>
       <c r="Q5" s="3">
-        <v>2</v>
-      </c>
-      <c r="R5" s="6">
+        <v>4</v>
+      </c>
+      <c r="R5" s="7">
         <f>754+(Q5-1)*(O5+P5)+O5/2</f>
-        <v>838</v>
+        <v>954</v>
       </c>
       <c r="S5" s="3">
         <f>(944+997)/2</f>
@@ -7239,7 +7232,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="12:12">
+    <row r="7" spans="11:12">
+      <c r="K7" s="3" t="str">
+        <f>K2&amp;"),"&amp;K3&amp;")"</f>
+        <v>0,0,0),0,0,0)</v>
+      </c>
       <c r="L7" s="3" t="s">
         <v>166</v>
       </c>
@@ -7264,33 +7261,59 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="12:12">
-      <c r="L14" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="12:12">
-      <c r="L15" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
     <row r="16" spans="12:12">
       <c r="L16" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12">
+      <c r="L18" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12">
+      <c r="L19" s="3" t="s">
         <v>174</v>
       </c>
     </row>
+    <row r="20" spans="12:12">
+      <c r="L20" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="12:12">
+      <c r="L21" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
     <row r="22" spans="12:12">
-      <c r="L22" s="14" t="s">
-        <v>175</v>
+      <c r="L22" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="12:12">
+      <c r="L24" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="12:12">
+      <c r="L25" s="6">
+        <v>935995</v>
+      </c>
+    </row>
+    <row r="28" spans="12:12">
+      <c r="L28" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7300,7 +7323,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:A989"/>
   <sheetViews>
-    <sheetView topLeftCell="A750" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A793" sqref="A793"/>
     </sheetView>
   </sheetViews>
@@ -7311,2507 +7334,2507 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890" s="1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896" s="1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898" s="1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904" s="1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906" s="1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926" s="1" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930" s="1" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932" s="1" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936" s="1" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940" s="1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942" s="1" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944" s="1" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946" s="1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948" s="1" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954" s="1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956" s="1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960" s="1" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964" s="1" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968" s="1" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970" s="1" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972" s="1" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974" s="1" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975" s="1" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979" s="1" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983" s="1" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985" s="1" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987" s="1" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989" s="1" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/Dota2Simulator/dota2.xlsx
+++ b/Dota2Simulator/dota2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="13140" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="工会" sheetId="11" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="找色" sheetId="8" r:id="rId7"/>
     <sheet name="作弊码" sheetId="6" r:id="rId8"/>
     <sheet name="兵线" sheetId="12" r:id="rId9"/>
+    <sheet name="萨尔" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="solver_opt" localSheetId="2" hidden="1">攻击速度!$B$6</definedName>
@@ -2530,10 +2531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2558,11 +2559,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2581,21 +2581,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2604,14 +2613,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2633,10 +2634,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2672,22 +2689,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2696,7 +2697,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2711,7 +2712,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2723,13 +2736,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,7 +2772,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2753,13 +2826,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2771,19 +2856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2795,79 +2868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2879,7 +2880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2891,7 +2892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2902,15 +2903,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2925,6 +2917,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2959,11 +2960,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2979,17 +2986,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3010,10 +3011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3022,19 +3023,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3043,112 +3044,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5153,7 +5154,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -5187,6 +5188,22 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -7463,8 +7480,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -11247,8 +11264,8 @@
   <sheetPr/>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Dota2Simulator/dota2.xlsx
+++ b/Dota2Simulator/dota2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="工会" sheetId="11" r:id="rId1"/>
@@ -2530,10 +2530,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2558,14 +2558,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2574,7 +2566,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2588,6 +2580,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2595,7 +2610,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2603,7 +2633,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2617,9 +2647,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2637,14 +2667,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2666,7 +2688,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2674,29 +2696,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2717,7 +2717,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,7 +2747,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,7 +2771,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2753,19 +2795,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2777,7 +2855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2789,55 +2867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2849,37 +2879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2891,7 +2891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2908,8 +2908,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2929,17 +2944,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2968,37 +2988,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3010,10 +3010,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3022,19 +3022,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3043,112 +3043,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5152,8 +5152,8 @@
   <sheetPr/>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -7463,8 +7463,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/Dota2Simulator/dota2.xlsx
+++ b/Dota2Simulator/dota2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12255" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="工会" sheetId="11" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="兵线" sheetId="12" r:id="rId9"/>
     <sheet name="钢背" sheetId="14" r:id="rId10"/>
     <sheet name="萨尔" sheetId="13" r:id="rId11"/>
+    <sheet name="回蓝物品" sheetId="15" r:id="rId12"/>
+    <sheet name="移速" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="solver_opt" localSheetId="2" hidden="1">攻击速度!$B$6</definedName>
@@ -77,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="1081">
   <si>
     <t>缠绕的任务用神域，但实际也不是那么容易</t>
   </si>
@@ -3744,6 +3746,78 @@
   </si>
   <si>
     <t>4级</t>
+  </si>
+  <si>
+    <t>每秒回复</t>
+  </si>
+  <si>
+    <t>总回复</t>
+  </si>
+  <si>
+    <t>CD时间</t>
+  </si>
+  <si>
+    <t>金钱</t>
+  </si>
+  <si>
+    <t>千元每秒回蓝</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>小蓝</t>
+  </si>
+  <si>
+    <t>芒果</t>
+  </si>
+  <si>
+    <t>魔瓶</t>
+  </si>
+  <si>
+    <t>魂戒</t>
+  </si>
+  <si>
+    <t>贤者面罩</t>
+  </si>
+  <si>
+    <t>凝露</t>
+  </si>
+  <si>
+    <t>王者之戒</t>
+  </si>
+  <si>
+    <t>还有1点全体回蓝光环</t>
+  </si>
+  <si>
+    <t>虚无宝石</t>
+  </si>
+  <si>
+    <t>秘法</t>
+  </si>
+  <si>
+    <t>群体队友回复</t>
+  </si>
+  <si>
+    <t>挂件</t>
+  </si>
+  <si>
+    <t>影之灵龛</t>
+  </si>
+  <si>
+    <t>勇气勋章</t>
+  </si>
+  <si>
+    <t>祭品</t>
+  </si>
+  <si>
+    <t>祭品光环唯一，可以叠加王者之戒</t>
+  </si>
+  <si>
+    <t>百分比加减速就是在基础移速上加减</t>
+  </si>
+  <si>
+    <t>50%加速 50% 减速就相当于没减速</t>
   </si>
 </sst>
 </file>
@@ -4548,7 +4622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4638,9 +4712,6 @@
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -7545,6 +7616,318 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="12.625"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="31.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B4">
+        <f>D4/C4</f>
+        <v>22.2222222222222</v>
+      </c>
+      <c r="C4">
+        <f>2.7*3</f>
+        <v>8.1</v>
+      </c>
+      <c r="D4">
+        <v>180</v>
+      </c>
+      <c r="F4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>700</v>
+      </c>
+      <c r="G5">
+        <f>B5/F5*1000</f>
+        <v>8.57142857142857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B6">
+        <v>0.7</v>
+      </c>
+      <c r="F6">
+        <v>175</v>
+      </c>
+      <c r="G6">
+        <f>B6/F6*1000</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="F7">
+        <v>225</v>
+      </c>
+      <c r="G7">
+        <f>B7/F7*1000</f>
+        <v>3.55555555555556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>425</v>
+      </c>
+      <c r="G8">
+        <f>B8/F8*1000</f>
+        <v>3.52941176470588</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B9">
+        <v>2.25</v>
+      </c>
+      <c r="F9">
+        <v>825</v>
+      </c>
+      <c r="G9">
+        <f>B9/F9*1000</f>
+        <v>2.72727272727273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B10">
+        <f>D10/E10</f>
+        <v>3.18181818181818</v>
+      </c>
+      <c r="D10">
+        <v>175</v>
+      </c>
+      <c r="E10">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>1300</v>
+      </c>
+      <c r="G10">
+        <f>B10/F10*1000</f>
+        <v>2.44755244755245</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>505</v>
+      </c>
+      <c r="G11">
+        <f>B11/F11*1000</f>
+        <v>1.98019801980198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>880</v>
+      </c>
+      <c r="G12">
+        <f>B12/F12*1000</f>
+        <v>1.70454545454545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="F13">
+        <v>1050</v>
+      </c>
+      <c r="G13">
+        <f>B13/F13*1000</f>
+        <v>1.42857142857143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B14">
+        <v>1.75</v>
+      </c>
+      <c r="F14">
+        <v>2450</v>
+      </c>
+      <c r="G14">
+        <f>B14/F14*1000</f>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A5:H14">
+    <sortCondition ref="G5:G14" descending="1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="33.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet12"/>
@@ -7572,7 +7955,7 @@
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="31">
         <v>0.25</v>
       </c>
     </row>
@@ -7596,7 +7979,7 @@
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>0</v>
       </c>
       <c r="C5" s="9">
@@ -7620,7 +8003,7 @@
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>0</v>
       </c>
       <c r="C7" s="9">
@@ -7653,10 +8036,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <v>1</v>
       </c>
       <c r="C10" s="9">
@@ -7674,7 +8057,7 @@
       </c>
     </row>
     <row r="12" ht="27" spans="1:3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="9">
@@ -7687,10 +8070,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>0</v>
       </c>
     </row>
@@ -8009,7 +8392,7 @@
       <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="30">
         <f>B8/B7</f>
         <v>-0.22531512605042</v>
       </c>
@@ -9141,7 +9524,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="9">
@@ -9152,7 +9535,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="9">
@@ -9163,7 +9546,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="9">
@@ -9174,7 +9557,7 @@
       </c>
     </row>
     <row r="5" ht="27" spans="1:5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="9">
@@ -9192,7 +9575,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="9">
@@ -9203,7 +9586,7 @@
       </c>
     </row>
     <row r="7" ht="108" spans="1:3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="9">
@@ -9214,7 +9597,7 @@
       </c>
     </row>
     <row r="8" ht="94.5" spans="1:3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="9">
@@ -10018,16 +10401,16 @@
       <c r="R3" s="24">
         <v>52</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="U3" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="V3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="W3" s="34" t="s">
         <v>153</v>
       </c>
       <c r="X3" s="24" t="s">
@@ -10084,16 +10467,16 @@
       <c r="R4" s="24">
         <v>49</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="T4" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="U4" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="V4" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="W4" s="34" t="s">
         <v>153</v>
       </c>
       <c r="X4" s="24" t="s">
@@ -10146,16 +10529,16 @@
       <c r="R5" s="24">
         <v>49</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="V5" s="36" t="s">
+      <c r="V5" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="W5" s="35" t="s">
+      <c r="W5" s="34" t="s">
         <v>153</v>
       </c>
       <c r="X5" s="24" t="s">
@@ -10208,16 +10591,16 @@
       <c r="R6" s="24">
         <v>49</v>
       </c>
-      <c r="T6" s="36" t="s">
+      <c r="T6" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="U6" s="35" t="s">
+      <c r="U6" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="V6" s="36" t="s">
+      <c r="V6" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="W6" s="35" t="s">
+      <c r="W6" s="34" t="s">
         <v>153</v>
       </c>
       <c r="X6" s="24" t="s">
@@ -10546,7 +10929,7 @@
       </c>
     </row>
     <row r="29" spans="12:21">
-      <c r="L29" s="35" t="s">
+      <c r="L29" s="34" t="s">
         <v>204</v>
       </c>
       <c r="O29" s="24">
@@ -13603,7 +13986,7 @@
   <sheetPr/>
   <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/Dota2Simulator/dota2.xlsx
+++ b/Dota2Simulator/dota2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="12"/>
+    <workbookView windowWidth="28800" windowHeight="13380" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="工会" sheetId="11" r:id="rId1"/>
@@ -7734,7 +7734,7 @@
         <v>700</v>
       </c>
       <c r="G5">
-        <f>B5/F5*1000</f>
+        <f t="shared" ref="G5:G14" si="0">B5/F5*1000</f>
         <v>8.57142857142857</v>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
         <v>175</v>
       </c>
       <c r="G6">
-        <f>B6/F6*1000</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -7764,7 +7764,7 @@
         <v>225</v>
       </c>
       <c r="G7">
-        <f>B7/F7*1000</f>
+        <f t="shared" si="0"/>
         <v>3.55555555555556</v>
       </c>
     </row>
@@ -7779,7 +7779,7 @@
         <v>425</v>
       </c>
       <c r="G8">
-        <f>B8/F8*1000</f>
+        <f t="shared" si="0"/>
         <v>3.52941176470588</v>
       </c>
       <c r="H8" t="s">
@@ -7797,7 +7797,7 @@
         <v>825</v>
       </c>
       <c r="G9">
-        <f>B9/F9*1000</f>
+        <f t="shared" si="0"/>
         <v>2.72727272727273</v>
       </c>
     </row>
@@ -7819,7 +7819,7 @@
         <v>1300</v>
       </c>
       <c r="G10">
-        <f>B10/F10*1000</f>
+        <f t="shared" si="0"/>
         <v>2.44755244755245</v>
       </c>
       <c r="H10" t="s">
@@ -7837,7 +7837,7 @@
         <v>505</v>
       </c>
       <c r="G11">
-        <f>B11/F11*1000</f>
+        <f t="shared" si="0"/>
         <v>1.98019801980198</v>
       </c>
     </row>
@@ -7852,7 +7852,7 @@
         <v>880</v>
       </c>
       <c r="G12">
-        <f>B12/F12*1000</f>
+        <f t="shared" si="0"/>
         <v>1.70454545454545</v>
       </c>
     </row>
@@ -7867,7 +7867,7 @@
         <v>1050</v>
       </c>
       <c r="G13">
-        <f>B13/F13*1000</f>
+        <f t="shared" si="0"/>
         <v>1.42857142857143</v>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
         <v>2450</v>
       </c>
       <c r="G14">
-        <f>B14/F14*1000</f>
+        <f t="shared" si="0"/>
         <v>0.714285714285714</v>
       </c>
       <c r="H14" t="s">
@@ -7903,7 +7903,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11433,8 +11433,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:A989"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A790" workbookViewId="0">
+      <selection activeCell="A796" sqref="A796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Dota2Simulator/dota2.xlsx
+++ b/Dota2Simulator/dota2.xlsx
@@ -7540,6 +7540,9 @@
                 <c:pt idx="47">
                   <c:v>106</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>54</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7692,6 +7695,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8130,6 +8136,9 @@
                 <c:pt idx="47">
                   <c:v>89</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>70</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8282,6 +8291,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8734,6 +8746,9 @@
                 <c:pt idx="47">
                   <c:v>223</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>96</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8886,6 +8901,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19829,8 +19847,8 @@
   <sheetPr/>
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -22804,7 +22822,7 @@
         <v>0.581199999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:19">
       <c r="A50" s="32" t="s">
         <v>576</v>
       </c>
@@ -22823,6 +22841,46 @@
       </c>
       <c r="F50" s="32" t="str">
         <v>59</v>
+      </c>
+      <c r="H50" s="32" t="str" cm="1">
+        <f t="array" ref="H50">INDEX(A:A,(ROW(A50)-1)*2)&amp;INDEX(B:B,(ROW(B50)-1)*2)</f>
+        <v>小黑w4</v>
+      </c>
+      <c r="I50" s="32" cm="1">
+        <f t="array" ref="I50">INDEX(D:D,(ROW(D50)-1)*2)*1</f>
+        <v>54</v>
+      </c>
+      <c r="J50" s="32" cm="1">
+        <f t="array" ref="J50">INDEX(D:D,(ROW(D50)-1)*2+1)*1</f>
+        <v>41</v>
+      </c>
+      <c r="K50" s="32">
+        <f>ABS(I50*I50*0.0001+I50*0.7656-J50)</f>
+        <v>0.634</v>
+      </c>
+      <c r="M50" s="32" cm="1">
+        <f t="array" ref="M50">INDEX(E:E,(ROW(E50)-1)*2)*1</f>
+        <v>70</v>
+      </c>
+      <c r="N50" s="32" cm="1">
+        <f t="array" ref="N50">INDEX(E:E,(ROW(E50)-1)*2+1)*1</f>
+        <v>155</v>
+      </c>
+      <c r="O50" s="32">
+        <f>ABS(M50*M50*0.0014+M50*0.0251+147-N50)</f>
+        <v>0.61699999999999</v>
+      </c>
+      <c r="Q50" s="32" cm="1">
+        <f t="array" ref="Q50">INDEX(F:F,(ROW(F50)-1)*2)*1</f>
+        <v>96</v>
+      </c>
+      <c r="R50" s="32" cm="1">
+        <f t="array" ref="R50">INDEX(F:F,(ROW(F50)-1)*2+1)*1</f>
+        <v>75</v>
+      </c>
+      <c r="S50" s="32">
+        <f>ABS(Q50*Q50*0.0002+Q50*0.751-R50)</f>
+        <v>1.0608</v>
       </c>
     </row>
     <row r="51" spans="1:6">

--- a/Dota2Simulator/dota2.xlsx
+++ b/Dota2Simulator/dota2.xlsx
@@ -2142,7 +2142,7 @@
     <t>181,228,221</t>
   </si>
   <si>
-    <t>144, 226, 176</t>
+    <t>144,226,176</t>
   </si>
   <si>
     <t>134,142,149</t>
@@ -11502,16 +11502,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>360045</xdr:colOff>
+      <xdr:colOff>6985</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>138430</xdr:rowOff>
+      <xdr:rowOff>52705</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11519,8 +11519,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1946275" y="401955"/>
-        <a:ext cx="1633220" cy="936625"/>
+        <a:off x="603250" y="287655"/>
+        <a:ext cx="2623185" cy="965200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11532,16 +11532,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>432435</xdr:colOff>
+      <xdr:colOff>13335</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11549,8 +11549,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1949450" y="1406525"/>
-        <a:ext cx="1702435" cy="908050"/>
+        <a:off x="596900" y="1311275"/>
+        <a:ext cx="2635885" cy="945515"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11562,16 +11562,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11579,8 +11579,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1949450" y="2387600"/>
-        <a:ext cx="1682750" cy="792480"/>
+        <a:off x="606425" y="2330450"/>
+        <a:ext cx="2616200" cy="848995"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19929,8 +19929,8 @@
   <sheetPr/>
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -24072,10 +24072,10 @@
         <v>144</v>
       </c>
       <c r="E101" s="32" t="str">
-        <v> 226</v>
+        <v>226</v>
       </c>
       <c r="F101" s="32" t="str">
-        <v> 176</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="8:8">
